--- a/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622431C-9B35-4845-9DE9-811DE432BBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8C8BA7-1243-4C61-9A14-3389FDC70A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9420" yWindow="120" windowWidth="10395" windowHeight="10665" activeTab="1" xr2:uid="{1E955969-53D8-4BFC-8A4C-F24E13D91194}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
   <si>
     <t>grupo 1</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Bravo</t>
   </si>
   <si>
-    <t>Patricia</t>
-  </si>
-  <si>
     <t>Castro</t>
   </si>
   <si>
@@ -422,6 +419,12 @@
   </si>
   <si>
     <t>Mariaelena</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>menos dos?</t>
   </si>
 </sst>
 </file>
@@ -815,10 +818,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -826,10 +829,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
       </c>
       <c r="D5">
         <v>16</v>
@@ -837,10 +840,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -848,10 +851,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>71</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -859,10 +862,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -870,10 +873,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -881,10 +884,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -892,10 +895,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -903,10 +906,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -914,10 +917,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -925,10 +928,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -936,10 +939,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
         <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -947,10 +950,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
         <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -958,10 +961,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -969,10 +972,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -980,10 +983,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -991,10 +994,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
       </c>
       <c r="D20">
         <v>14</v>
@@ -1002,10 +1005,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
         <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>98</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -1013,10 +1016,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -1024,10 +1027,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
         <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1035,10 +1038,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
         <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -1046,10 +1049,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>106</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -1057,10 +1060,10 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -1068,10 +1071,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -1079,10 +1082,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
         <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1090,10 +1093,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -1101,10 +1104,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -1112,10 +1115,10 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -1123,10 +1126,10 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
         <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>119</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -1134,10 +1137,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
         <v>120</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1145,10 +1148,10 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -1156,10 +1159,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
         <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>124</v>
       </c>
       <c r="D35">
         <v>14</v>
@@ -1167,10 +1170,10 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
         <v>125</v>
-      </c>
-      <c r="C36" t="s">
-        <v>126</v>
       </c>
       <c r="D36">
         <v>15</v>
@@ -1178,10 +1181,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -1189,10 +1192,10 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
         <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -1200,10 +1203,10 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>131</v>
       </c>
       <c r="D39">
         <v>15</v>
@@ -1219,7 +1222,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,18 +1267,18 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -1283,21 +1286,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -1305,10 +1311,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1316,10 +1322,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -1327,10 +1333,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1338,10 +1344,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1349,10 +1355,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1360,10 +1366,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1371,10 +1377,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1382,10 +1388,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
       <c r="D15">
         <v>18</v>
@@ -1393,10 +1399,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -1404,10 +1410,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1415,10 +1421,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -1426,10 +1432,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1437,10 +1443,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
       </c>
       <c r="D20">
         <v>16</v>
@@ -1448,10 +1454,10 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
       </c>
       <c r="D21">
         <v>17</v>
@@ -1459,21 +1465,21 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
       <c r="D22">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1481,10 +1487,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -1492,10 +1498,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -1503,10 +1509,10 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -1514,10 +1520,10 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -1525,10 +1531,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1536,10 +1542,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -1547,10 +1553,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
       </c>
       <c r="D30">
         <v>13</v>

--- a/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8C8BA7-1243-4C61-9A14-3389FDC70A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83F8499-8908-4B9D-BAE9-882FE262F8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="120" windowWidth="10395" windowHeight="10665" activeTab="1" xr2:uid="{1E955969-53D8-4BFC-8A4C-F24E13D91194}"/>
+    <workbookView xWindow="9960" yWindow="60" windowWidth="10395" windowHeight="10665" activeTab="1" xr2:uid="{1E955969-53D8-4BFC-8A4C-F24E13D91194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
   <si>
     <t>grupo 1</t>
   </si>
@@ -422,9 +422,6 @@
   </si>
   <si>
     <t>Claudia</t>
-  </si>
-  <si>
-    <t>menos dos?</t>
   </si>
 </sst>
 </file>
@@ -780,7 +777,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,6 +823,9 @@
       <c r="D4">
         <v>14</v>
       </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -837,6 +837,9 @@
       <c r="D5">
         <v>16</v>
       </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -848,6 +851,9 @@
       <c r="D6">
         <v>15</v>
       </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -859,6 +865,9 @@
       <c r="D7">
         <v>17</v>
       </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -870,6 +879,9 @@
       <c r="D8">
         <v>15</v>
       </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -881,6 +893,9 @@
       <c r="D9">
         <v>15</v>
       </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -892,6 +907,9 @@
       <c r="D10">
         <v>16</v>
       </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -903,6 +921,9 @@
       <c r="D11">
         <v>15</v>
       </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -914,6 +935,9 @@
       <c r="D12">
         <v>13</v>
       </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -925,6 +949,9 @@
       <c r="D13">
         <v>15</v>
       </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -936,6 +963,9 @@
       <c r="D14">
         <v>15</v>
       </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -947,6 +977,9 @@
       <c r="D15">
         <v>15</v>
       </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -958,8 +991,11 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>89</v>
       </c>
@@ -969,8 +1005,11 @@
       <c r="D17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>91</v>
       </c>
@@ -980,8 +1019,11 @@
       <c r="D18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -991,8 +1033,11 @@
       <c r="D19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -1002,8 +1047,11 @@
       <c r="D20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>96</v>
       </c>
@@ -1013,8 +1061,11 @@
       <c r="D21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>98</v>
       </c>
@@ -1024,8 +1075,11 @@
       <c r="D22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>100</v>
       </c>
@@ -1035,8 +1089,11 @@
       <c r="D23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>102</v>
       </c>
@@ -1046,8 +1103,11 @@
       <c r="D24">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>104</v>
       </c>
@@ -1057,8 +1117,11 @@
       <c r="D25">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>106</v>
       </c>
@@ -1068,8 +1131,11 @@
       <c r="D26">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>108</v>
       </c>
@@ -1079,8 +1145,11 @@
       <c r="D27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>110</v>
       </c>
@@ -1090,8 +1159,11 @@
       <c r="D28">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -1101,8 +1173,11 @@
       <c r="D29">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>113</v>
       </c>
@@ -1113,7 +1188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>115</v>
       </c>
@@ -1123,8 +1198,11 @@
       <c r="D31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>117</v>
       </c>
@@ -1134,8 +1212,11 @@
       <c r="D32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>119</v>
       </c>
@@ -1143,10 +1224,13 @@
         <v>120</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>121</v>
       </c>
@@ -1156,8 +1240,11 @@
       <c r="D34">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>122</v>
       </c>
@@ -1167,8 +1254,11 @@
       <c r="D35">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>124</v>
       </c>
@@ -1178,8 +1268,11 @@
       <c r="D36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -1189,8 +1282,11 @@
       <c r="D37">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>127</v>
       </c>
@@ -1200,8 +1296,11 @@
       <c r="D38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>129</v>
       </c>
@@ -1210,6 +1309,9 @@
       </c>
       <c r="D39">
         <v>15</v>
+      </c>
+      <c r="E39">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1221,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04512DDF-8C11-43C9-9786-4DDF58AF77AD}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,6 +1374,9 @@
       <c r="D4">
         <v>12</v>
       </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1283,6 +1388,9 @@
       <c r="D5">
         <v>15</v>
       </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1292,10 +1400,10 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>132</v>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,6 +1415,9 @@
       </c>
       <c r="D7">
         <v>13</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,6 +1430,9 @@
       <c r="D8">
         <v>15</v>
       </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -1330,6 +1444,9 @@
       <c r="D9">
         <v>16</v>
       </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1341,6 +1458,9 @@
       <c r="D10">
         <v>7</v>
       </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1352,6 +1472,9 @@
       <c r="D11">
         <v>15</v>
       </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1363,6 +1486,9 @@
       <c r="D12">
         <v>15</v>
       </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1374,6 +1500,9 @@
       <c r="D13">
         <v>14</v>
       </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1385,6 +1514,9 @@
       <c r="D14">
         <v>14</v>
       </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1396,6 +1528,9 @@
       <c r="D15">
         <v>18</v>
       </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1407,8 +1542,11 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>35</v>
       </c>
@@ -1418,8 +1556,11 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -1429,8 +1570,11 @@
       <c r="D18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1440,8 +1584,11 @@
       <c r="D19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1451,8 +1598,11 @@
       <c r="D20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1462,8 +1612,11 @@
       <c r="D21">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -1473,8 +1626,11 @@
       <c r="D22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>47</v>
       </c>
@@ -1484,8 +1640,11 @@
       <c r="D23">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>49</v>
       </c>
@@ -1495,8 +1654,11 @@
       <c r="D24">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>51</v>
       </c>
@@ -1506,8 +1668,11 @@
       <c r="D25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>53</v>
       </c>
@@ -1517,8 +1682,11 @@
       <c r="D26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -1528,8 +1696,11 @@
       <c r="D27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>57</v>
       </c>
@@ -1540,7 +1711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>59</v>
       </c>
@@ -1550,8 +1721,11 @@
       <c r="D29">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -1560,6 +1734,9 @@
       </c>
       <c r="D30">
         <v>13</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83F8499-8908-4B9D-BAE9-882FE262F8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F92E2-89FB-4301-A3E4-85990D4D9767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9960" yWindow="60" windowWidth="10395" windowHeight="10665" activeTab="1" xr2:uid="{1E955969-53D8-4BFC-8A4C-F24E13D91194}"/>
   </bookViews>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,6 +1710,9 @@
       <c r="D28">
         <v>15</v>
       </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">

--- a/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 2/urgh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702F92E2-89FB-4301-A3E4-85990D4D9767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D884C-EA83-4DE8-AD41-A9E6EFFA2B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="60" windowWidth="10395" windowHeight="10665" activeTab="1" xr2:uid="{1E955969-53D8-4BFC-8A4C-F24E13D91194}"/>
+    <workbookView xWindow="9675" yWindow="0" windowWidth="10860" windowHeight="10785" xr2:uid="{1E955969-53D8-4BFC-8A4C-F24E13D91194}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="132">
-  <si>
-    <t>grupo 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
   <si>
     <t>Daniel Chaw</t>
   </si>
   <si>
-    <t>grupo 2</t>
-  </si>
-  <si>
     <t>J.C. Díaz</t>
   </si>
   <si>
@@ -280,9 +274,6 @@
     <t xml:space="preserve">Fuster </t>
   </si>
   <si>
-    <t>Yoliet</t>
-  </si>
-  <si>
     <t>Gloria</t>
   </si>
   <si>
@@ -422,16 +413,44 @@
   </si>
   <si>
     <t>Claudia</t>
+  </si>
+  <si>
+    <t>Yuliet</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>PROM</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Prom</t>
+  </si>
+  <si>
+    <t>final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -457,9 +476,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,51 +794,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2520877C-A504-4982-8E72-1B7905ABDA62}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>17</v>
+      </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>14</v>
@@ -826,27 +855,61 @@
       <c r="E4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <f>J4/3</f>
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J39" si="0">D4+E4+F4</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I39" si="1">J5/3</f>
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -854,13 +917,30 @@
       <c r="E6">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>18</v>
+      </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>17</v>
@@ -868,27 +948,61 @@
       <c r="E7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>14</v>
+      </c>
       <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>72</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -896,13 +1010,30 @@
       <c r="E9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>16</v>
+      </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -910,13 +1041,30 @@
       <c r="E10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>16</v>
+      </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -924,13 +1072,30 @@
       <c r="E11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -938,13 +1103,30 @@
       <c r="E12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -952,27 +1134,61 @@
       <c r="E13">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
       <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -980,27 +1196,61 @@
       <c r="E15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -1008,13 +1258,30 @@
       <c r="E17">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -1022,13 +1289,30 @@
       <c r="E18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -1036,69 +1320,154 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
       <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
         <v>94</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
         <v>95</v>
       </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C24" t="s">
         <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -1106,13 +1475,30 @@
       <c r="E24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>17</v>
+      </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -1120,13 +1506,30 @@
       <c r="E25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>16</v>
+      </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -1134,27 +1537,61 @@
       <c r="E26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>15</v>
+      </c>
       <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
         <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1162,13 +1599,30 @@
       <c r="E28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>17</v>
+      </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -1176,38 +1630,92 @@
       <c r="E29">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>13</v>
+      </c>
       <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2">
+        <v>16</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
         <v>114</v>
       </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" t="s">
-        <v>118</v>
       </c>
       <c r="D32">
         <v>14</v>
@@ -1215,13 +1723,30 @@
       <c r="E32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32" s="2">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>13</v>
+      </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -1229,13 +1754,30 @@
       <c r="E33">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>17</v>
+      </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -1243,41 +1785,92 @@
       <c r="E34">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>18</v>
+      </c>
+      <c r="G34" s="2">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>15</v>
+      </c>
       <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
         <v>122</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" t="s">
         <v>123</v>
-      </c>
-      <c r="D35">
-        <v>14</v>
-      </c>
-      <c r="E35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36">
-        <v>15</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="s">
-        <v>126</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -1285,34 +1878,86 @@
       <c r="E37">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>17</v>
+      </c>
+      <c r="G37" s="2">
+        <v>17</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>15</v>
+      </c>
       <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>15.333333333333334</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
         <v>127</v>
       </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38">
-        <v>16</v>
-      </c>
-      <c r="E38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
       <c r="D39">
         <v>15</v>
       </c>
       <c r="E39">
         <v>16</v>
       </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="G40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04512DDF-8C11-43C9-9786-4DDF58AF77AD}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,43 +1978,55 @@
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1377,41 +2034,101 @@
       <c r="E4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <f>D4+E4+F4+G4</f>
+        <v>55</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L30" si="0">K4/4</f>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K30" si="1">D5+E5+F5+G5</f>
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -1419,27 +2136,67 @@
       <c r="E7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>14</v>
+      </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -1447,13 +2204,33 @@
       <c r="E9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1461,13 +2238,33 @@
       <c r="E10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>16</v>
+      </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1475,13 +2272,33 @@
       <c r="E11">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1489,13 +2306,33 @@
       <c r="E12">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>16</v>
+      </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1503,27 +2340,67 @@
       <c r="E13">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
       </c>
       <c r="D15">
         <v>18</v>
@@ -1531,55 +2408,135 @@
       <c r="E15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
       <c r="D17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>38</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -1587,55 +2544,135 @@
       <c r="E19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>18</v>
+      </c>
+      <c r="H21" s="2">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22" s="2">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>46</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1643,13 +2680,33 @@
       <c r="E23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>14</v>
+      </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>11</v>
@@ -1657,27 +2714,67 @@
       <c r="E24">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>15</v>
+      </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>52</v>
-      </c>
-      <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -1685,27 +2782,67 @@
       <c r="E26">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>15</v>
+      </c>
       <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>56</v>
-      </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1713,13 +2850,33 @@
       <c r="E28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28" s="2">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>17</v>
+      </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -1727,19 +2884,56 @@
       <c r="E29">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>14</v>
+      </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>13</v>
       </c>
       <c r="E30">
         <v>17</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
       </c>
     </row>
   </sheetData>
